--- a/InputData/elec/NSDoNCC/Norm St Dev of New Cap Costs.xlsx
+++ b/InputData/elec/NSDoNCC/Norm St Dev of New Cap Costs.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\US\Updated Input Data for v1.2.4\Files\Elec\NSDoNCC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="11025"/>
   </bookViews>
@@ -16,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NREL OpenPV'!$A$1:$G$1108</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="108">
   <si>
     <t>Source:</t>
   </si>
@@ -306,9 +311,6 @@
     <t xml:space="preserve">Where possible, we use published costs to estimate the normalized standard deviation for new </t>
   </si>
   <si>
-    <t>nuclear, wind, solar thermal, solar PV, and geothermal. However, given the small sample size (2) for</t>
-  </si>
-  <si>
     <t>solar PV and the availability of data published by NREL, we use data from the Open PV project to</t>
   </si>
   <si>
@@ -344,11 +346,32 @@
   <si>
     <t>Hydro, Natural Gas Peaker, Petroleum, Biomass</t>
   </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>offshore wind</t>
+  </si>
+  <si>
+    <t>onshore wind</t>
+  </si>
+  <si>
+    <t>hard coal</t>
+  </si>
+  <si>
+    <t>nuclear, onshore wind, solar thermal, solar PV, and geothermal. However, given the small sample size (2) for</t>
+  </si>
+  <si>
+    <t>We use onshore wind ranges for offshore wind and we assume the coal values apply to both hard coal</t>
+  </si>
+  <si>
+    <t>and lignite.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -571,7 +594,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -617,6 +640,8 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Body: normal cell" xfId="4"/>
@@ -900,7 +925,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -908,9 +933,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -920,7 +947,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H1" s="5"/>
     </row>
@@ -992,12 +1019,12 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1037,37 +1064,47 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1084,7 +1121,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2372,13 +2411,13 @@
         <v>49</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F1" t="s">
         <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -16952,7 +16991,7 @@
         <v>41262</v>
       </c>
       <c r="G584">
-        <f t="shared" ref="G584:G647" si="20">YEAR(F584)</f>
+        <f t="shared" ref="G584:G641" si="20">YEAR(F584)</f>
         <v>2012</v>
       </c>
     </row>
@@ -26812,9 +26851,11 @@
   <sheetPr>
     <tabColor rgb="FF215381"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -26828,15 +26869,15 @@
         <v>2</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="B2" s="29">
-        <f t="array" ref="B2">STDEV(IF(CRS!$A$2:$A$48=NSDoNCC!A2,CRS!$B$2:$B$48)/AVERAGEIF(CRS!$A$2:$A$48,NSDoNCC!A2,CRS!$B$2:$B$48))</f>
+        <f t="array" ref="B2">STDEV(IF(CRS!$A$2:$A$48=RIGHT(NSDoNCC!A2,4),CRS!$B$2:$B$48)/AVERAGEIF(CRS!$A$2:$A$48,RIGHT(NSDoNCC!A2,4),CRS!$B$2:$B$48))</f>
         <v>0.40074320895143922</v>
       </c>
     </row>
@@ -26869,10 +26910,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B6" s="29">
-        <f t="array" ref="B6">STDEV(IF(CRS!$A$2:$A$48=NSDoNCC!A6,CRS!$B$2:$B$48)/AVERAGEIF(CRS!$A$2:$A$48,NSDoNCC!A6,CRS!$B$2:$B$48))</f>
+        <f t="array" ref="B6">STDEV(IF(CRS!$A$2:$A$48=RIGHT(NSDoNCC!A6,4),CRS!$B$2:$B$48)/AVERAGEIF(CRS!$A$2:$A$48,RIGHT(NSDoNCC!A6,4),CRS!$B$2:$B$48))</f>
         <v>0.36533583600846598</v>
       </c>
     </row>
@@ -26928,6 +26969,24 @@
       <c r="B12" s="30">
         <f>INDEX('E3 Data'!$B$27:$L$27,1,ROW(A11))</f>
         <v>0.11583176732675461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="32">
+        <f>B2</f>
+        <v>0.40074320895143922</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="32">
+        <f>B6</f>
+        <v>0.36533583600846598</v>
       </c>
     </row>
   </sheetData>
